--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp4-Rgmb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp4-Rgmb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Bmp4</t>
+  </si>
+  <si>
+    <t>Rgmb</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Bmp4</t>
-  </si>
-  <si>
-    <t>Rgmb</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.705785499999999</v>
+        <v>9.244836500000002</v>
       </c>
       <c r="H2">
-        <v>19.411571</v>
+        <v>18.489673</v>
       </c>
       <c r="I2">
-        <v>0.3626960398572868</v>
+        <v>0.5388391951160159</v>
       </c>
       <c r="J2">
-        <v>0.3021399662106912</v>
+        <v>0.470461923919491</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.0639455</v>
+        <v>12.8066855</v>
       </c>
       <c r="N2">
-        <v>20.127891</v>
+        <v>25.613371</v>
       </c>
       <c r="O2">
-        <v>0.1841073870690166</v>
+        <v>0.3362022094228136</v>
       </c>
       <c r="P2">
-        <v>0.1533044232183457</v>
+        <v>0.2862725115007782</v>
       </c>
       <c r="Q2">
-        <v>97.67849630669023</v>
+        <v>118.3957135544208</v>
       </c>
       <c r="R2">
-        <v>390.7139852267609</v>
+        <v>473.5828542176831</v>
       </c>
       <c r="S2">
-        <v>0.06677502019840499</v>
+        <v>0.1811589279216151</v>
       </c>
       <c r="T2">
-        <v>0.04631939325114046</v>
+        <v>0.1346803165259207</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.705785499999999</v>
+        <v>9.244836500000002</v>
       </c>
       <c r="H3">
-        <v>19.411571</v>
+        <v>18.489673</v>
       </c>
       <c r="I3">
-        <v>0.3626960398572868</v>
+        <v>0.5388391951160159</v>
       </c>
       <c r="J3">
-        <v>0.3021399662106912</v>
+        <v>0.470461923919491</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.556209333333334</v>
+        <v>5.556209333333332</v>
       </c>
       <c r="N3">
         <v>16.668628</v>
       </c>
       <c r="O3">
-        <v>0.1016439509105532</v>
+        <v>0.1458620853836322</v>
       </c>
       <c r="P3">
-        <v>0.1269568879015276</v>
+        <v>0.186299960314954</v>
       </c>
       <c r="Q3">
-        <v>53.92737598243134</v>
+        <v>51.36624684644067</v>
       </c>
       <c r="R3">
-        <v>323.564255894588</v>
+        <v>308.197481078644</v>
       </c>
       <c r="S3">
-        <v>0.03686585847070612</v>
+        <v>0.07859620868605996</v>
       </c>
       <c r="T3">
-        <v>0.03835874982078207</v>
+        <v>0.08764703775589808</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.705785499999999</v>
+        <v>9.244836500000002</v>
       </c>
       <c r="H4">
-        <v>19.411571</v>
+        <v>18.489673</v>
       </c>
       <c r="I4">
-        <v>0.3626960398572868</v>
+        <v>0.5388391951160159</v>
       </c>
       <c r="J4">
-        <v>0.3021399662106912</v>
+        <v>0.470461923919491</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.038619333333333</v>
+        <v>3.618423666666667</v>
       </c>
       <c r="N4">
-        <v>9.115857999999999</v>
+        <v>10.855271</v>
       </c>
       <c r="O4">
-        <v>0.05558776781505795</v>
+        <v>0.0949911693670569</v>
       </c>
       <c r="P4">
-        <v>0.06943108708360662</v>
+        <v>0.121325915756718</v>
       </c>
       <c r="Q4">
-        <v>29.49218746548633</v>
+        <v>33.45173518606384</v>
       </c>
       <c r="R4">
-        <v>176.953124792918</v>
+        <v>200.7104111163831</v>
       </c>
       <c r="S4">
-        <v>0.02016146325102786</v>
+        <v>0.05118496524487408</v>
       </c>
       <c r="T4">
-        <v>0.02097790630541246</v>
+        <v>0.05707922374819965</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.705785499999999</v>
+        <v>9.244836500000002</v>
       </c>
       <c r="H5">
-        <v>19.411571</v>
+        <v>18.489673</v>
       </c>
       <c r="I5">
-        <v>0.3626960398572868</v>
+        <v>0.5388391951160159</v>
       </c>
       <c r="J5">
-        <v>0.3021399662106912</v>
+        <v>0.470461923919491</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.6328045</v>
+        <v>11.9979585</v>
       </c>
       <c r="N5">
-        <v>45.265609</v>
+        <v>23.995917</v>
       </c>
       <c r="O5">
-        <v>0.4140390564057488</v>
+        <v>0.3149714386492294</v>
       </c>
       <c r="P5">
-        <v>0.3447662787607582</v>
+        <v>0.2681947419320252</v>
       </c>
       <c r="Q5">
-        <v>219.6691457404347</v>
+        <v>110.9191646662853</v>
       </c>
       <c r="R5">
-        <v>878.6765829617389</v>
+        <v>443.6766586651411</v>
       </c>
       <c r="S5">
-        <v>0.1501703261046129</v>
+        <v>0.1697189564862844</v>
       </c>
       <c r="T5">
-        <v>0.1041676718153612</v>
+        <v>0.126175414274432</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.705785499999999</v>
+        <v>9.244836500000002</v>
       </c>
       <c r="H6">
-        <v>19.411571</v>
+        <v>18.489673</v>
       </c>
       <c r="I6">
-        <v>0.3626960398572868</v>
+        <v>0.5388391951160159</v>
       </c>
       <c r="J6">
-        <v>0.3021399662106912</v>
+        <v>0.470461923919491</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>9.695570333333334</v>
+        <v>0.6145123333333333</v>
       </c>
       <c r="N6">
-        <v>29.086711</v>
+        <v>1.843537</v>
       </c>
       <c r="O6">
-        <v>0.1773684207862488</v>
+        <v>0.01613223063721173</v>
       </c>
       <c r="P6">
-        <v>0.2215394277112148</v>
+        <v>0.02060462744379138</v>
       </c>
       <c r="Q6">
-        <v>94.10312595549684</v>
+        <v>5.681066048900168</v>
       </c>
       <c r="R6">
-        <v>564.6187557329811</v>
+        <v>34.08639629340101</v>
       </c>
       <c r="S6">
-        <v>0.06433082381491331</v>
+        <v>0.008692678171981098</v>
       </c>
       <c r="T6">
-        <v>0.06693591520300231</v>
+        <v>0.009693692668850434</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.705785499999999</v>
+        <v>9.244836500000002</v>
       </c>
       <c r="H7">
-        <v>19.411571</v>
+        <v>18.489673</v>
       </c>
       <c r="I7">
-        <v>0.3626960398572868</v>
+        <v>0.5388391951160159</v>
       </c>
       <c r="J7">
-        <v>0.3021399662106912</v>
+        <v>0.470461923919491</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.676304</v>
+        <v>3.498421666666667</v>
       </c>
       <c r="N7">
-        <v>11.028912</v>
+        <v>10.495265</v>
       </c>
       <c r="O7">
-        <v>0.06725341701337453</v>
+        <v>0.09184086654005638</v>
       </c>
       <c r="P7">
-        <v>0.08400189532454697</v>
+        <v>0.1173022430517332</v>
       </c>
       <c r="Q7">
-        <v>35.68141805679199</v>
+        <v>32.34233631639084</v>
       </c>
       <c r="R7">
-        <v>214.088508340752</v>
+        <v>194.054017898345</v>
       </c>
       <c r="S7">
-        <v>0.02439254801762162</v>
+        <v>0.04948745860520141</v>
       </c>
       <c r="T7">
-        <v>0.02538032981499264</v>
+        <v>0.05518623894619015</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>14.961619</v>
       </c>
       <c r="I8">
-        <v>0.1863671917178862</v>
+        <v>0.2906814248722333</v>
       </c>
       <c r="J8">
-        <v>0.2328767238425595</v>
+        <v>0.3806920792861188</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.0639455</v>
+        <v>12.8066855</v>
       </c>
       <c r="N8">
-        <v>20.127891</v>
+        <v>25.613371</v>
       </c>
       <c r="O8">
-        <v>0.1841073870690166</v>
+        <v>0.3362022094228136</v>
       </c>
       <c r="P8">
-        <v>0.1533044232183457</v>
+        <v>0.2862725115007782</v>
       </c>
       <c r="Q8">
-        <v>50.1909727359215</v>
+        <v>63.86958303460818</v>
       </c>
       <c r="R8">
-        <v>301.145836415529</v>
+        <v>383.217498207649</v>
       </c>
       <c r="S8">
-        <v>0.03431157670257051</v>
+        <v>0.09772773728021641</v>
       </c>
       <c r="T8">
-        <v>0.03570103182966155</v>
+        <v>0.1089816776456906</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>14.961619</v>
       </c>
       <c r="I9">
-        <v>0.1863671917178862</v>
+        <v>0.2906814248722333</v>
       </c>
       <c r="J9">
-        <v>0.2328767238425595</v>
+        <v>0.3806920792861188</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.556209333333334</v>
+        <v>5.556209333333332</v>
       </c>
       <c r="N9">
         <v>16.668628</v>
       </c>
       <c r="O9">
-        <v>0.1016439509105532</v>
+        <v>0.1458620853836322</v>
       </c>
       <c r="P9">
-        <v>0.1269568879015276</v>
+        <v>0.186299960314954</v>
       </c>
       <c r="Q9">
         <v>27.70996237652578</v>
       </c>
       <c r="R9">
-        <v>249.3896613887321</v>
+        <v>249.389661388732</v>
       </c>
       <c r="S9">
-        <v>0.01894309768631049</v>
+        <v>0.04239939881414956</v>
       </c>
       <c r="T9">
-        <v>0.02956530412375483</v>
+        <v>0.07092291926322124</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>14.961619</v>
       </c>
       <c r="I10">
-        <v>0.1863671917178862</v>
+        <v>0.2906814248722333</v>
       </c>
       <c r="J10">
-        <v>0.2328767238425595</v>
+        <v>0.3806920792861188</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.038619333333333</v>
+        <v>3.618423666666667</v>
       </c>
       <c r="N10">
-        <v>9.115857999999999</v>
+        <v>10.855271</v>
       </c>
       <c r="O10">
-        <v>0.05558776781505795</v>
+        <v>0.0949911693670569</v>
       </c>
       <c r="P10">
-        <v>0.06943108708360662</v>
+        <v>0.121325915756718</v>
       </c>
       <c r="Q10">
-        <v>15.15422158378911</v>
+        <v>18.04582542708323</v>
       </c>
       <c r="R10">
-        <v>136.387994254102</v>
+        <v>162.412428843749</v>
       </c>
       <c r="S10">
-        <v>0.01035973618155825</v>
+        <v>0.02761216846189574</v>
       </c>
       <c r="T10">
-        <v>0.01616888409285776</v>
+        <v>0.04618781514071747</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1107,10 +1107,10 @@
         <v>14.961619</v>
       </c>
       <c r="I11">
-        <v>0.1863671917178862</v>
+        <v>0.2906814248722333</v>
       </c>
       <c r="J11">
-        <v>0.2328767238425595</v>
+        <v>0.3806920792861188</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>22.6328045</v>
+        <v>11.9979585</v>
       </c>
       <c r="N11">
-        <v>45.265609</v>
+        <v>23.995917</v>
       </c>
       <c r="O11">
-        <v>0.4140390564057488</v>
+        <v>0.3149714386492294</v>
       </c>
       <c r="P11">
-        <v>0.3447662787607582</v>
+        <v>0.2681947419320252</v>
       </c>
       <c r="Q11">
-        <v>112.8744659434952</v>
+        <v>59.8362946182705</v>
       </c>
       <c r="R11">
-        <v>677.2467956609711</v>
+        <v>359.017767709623</v>
       </c>
       <c r="S11">
-        <v>0.07716329620386289</v>
+        <v>0.09155634658061521</v>
       </c>
       <c r="T11">
-        <v>0.08028804148919597</v>
+        <v>0.1020996139597067</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,40 +1169,40 @@
         <v>14.961619</v>
       </c>
       <c r="I12">
-        <v>0.1863671917178862</v>
+        <v>0.2906814248722333</v>
       </c>
       <c r="J12">
-        <v>0.2328767238425595</v>
+        <v>0.3806920792861188</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>9.695570333333334</v>
+        <v>0.6145123333333333</v>
       </c>
       <c r="N12">
-        <v>29.086711</v>
+        <v>1.843537</v>
       </c>
       <c r="O12">
-        <v>0.1773684207862488</v>
+        <v>0.01613223063721173</v>
       </c>
       <c r="P12">
-        <v>0.2215394277112148</v>
+        <v>0.02060462744379138</v>
       </c>
       <c r="Q12">
-        <v>48.35380977167879</v>
+        <v>3.064699800711445</v>
       </c>
       <c r="R12">
-        <v>435.1842879451091</v>
+        <v>27.582298206403</v>
       </c>
       <c r="S12">
-        <v>0.03305565448136954</v>
+        <v>0.0046893397879922</v>
       </c>
       <c r="T12">
-        <v>0.05159137612734324</v>
+        <v>0.007844018464492765</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1231,10 +1231,10 @@
         <v>14.961619</v>
       </c>
       <c r="I13">
-        <v>0.1863671917178862</v>
+        <v>0.2906814248722333</v>
       </c>
       <c r="J13">
-        <v>0.2328767238425595</v>
+        <v>0.3806920792861188</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.676304</v>
+        <v>3.498421666666667</v>
       </c>
       <c r="N13">
-        <v>11.028912</v>
+        <v>10.495265</v>
       </c>
       <c r="O13">
-        <v>0.06725341701337453</v>
+        <v>0.09184086654005638</v>
       </c>
       <c r="P13">
-        <v>0.08400189532454697</v>
+        <v>0.1173022430517332</v>
       </c>
       <c r="Q13">
-        <v>18.33448659205867</v>
+        <v>17.44735069267056</v>
       </c>
       <c r="R13">
-        <v>165.010379328528</v>
+        <v>157.026156234035</v>
       </c>
       <c r="S13">
-        <v>0.01253383046221452</v>
+        <v>0.0266964339473642</v>
       </c>
       <c r="T13">
-        <v>0.01956208617974611</v>
+        <v>0.04465603481229</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.327592</v>
+        <v>2.924906</v>
       </c>
       <c r="H14">
-        <v>12.655184</v>
+        <v>5.849812</v>
       </c>
       <c r="I14">
-        <v>0.2364561384787094</v>
+        <v>0.1704793800117509</v>
       </c>
       <c r="J14">
-        <v>0.1969771980923172</v>
+        <v>0.1488459967943903</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.0639455</v>
+        <v>12.8066855</v>
       </c>
       <c r="N14">
-        <v>20.127891</v>
+        <v>25.613371</v>
       </c>
       <c r="O14">
-        <v>0.1841073870690166</v>
+        <v>0.3362022094228136</v>
       </c>
       <c r="P14">
-        <v>0.1533044232183457</v>
+        <v>0.2862725115007782</v>
       </c>
       <c r="Q14">
-        <v>63.68054103423599</v>
+        <v>37.458351259063</v>
       </c>
       <c r="R14">
-        <v>254.722164136944</v>
+        <v>149.833405036252</v>
       </c>
       <c r="S14">
-        <v>0.04353332181174474</v>
+        <v>0.0573155442209821</v>
       </c>
       <c r="T14">
-        <v>0.03019747574070851</v>
+        <v>0.04261051732916689</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.327592</v>
+        <v>2.924906</v>
       </c>
       <c r="H15">
-        <v>12.655184</v>
+        <v>5.849812</v>
       </c>
       <c r="I15">
-        <v>0.2364561384787094</v>
+        <v>0.1704793800117509</v>
       </c>
       <c r="J15">
-        <v>0.1969771980923172</v>
+        <v>0.1488459967943903</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.556209333333334</v>
+        <v>5.556209333333332</v>
       </c>
       <c r="N15">
         <v>16.668628</v>
       </c>
       <c r="O15">
-        <v>0.1016439509105532</v>
+        <v>0.1458620853836322</v>
       </c>
       <c r="P15">
-        <v>0.1269568879015276</v>
+        <v>0.186299960314954</v>
       </c>
       <c r="Q15">
-        <v>35.15742572792534</v>
+        <v>16.25139001632266</v>
       </c>
       <c r="R15">
-        <v>210.944554367552</v>
+        <v>97.50834009793599</v>
       </c>
       <c r="S15">
-        <v>0.02403433613202891</v>
+        <v>0.02486647788342269</v>
       </c>
       <c r="T15">
-        <v>0.02500761205736332</v>
+        <v>0.02773000329583468</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,14 +1396,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
         <v>2</v>
       </c>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.327592</v>
+        <v>2.924906</v>
       </c>
       <c r="H16">
-        <v>12.655184</v>
+        <v>5.849812</v>
       </c>
       <c r="I16">
-        <v>0.2364561384787094</v>
+        <v>0.1704793800117509</v>
       </c>
       <c r="J16">
-        <v>0.1969771980923172</v>
+        <v>0.1488459967943903</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.038619333333333</v>
+        <v>3.618423666666667</v>
       </c>
       <c r="N16">
-        <v>9.115857999999999</v>
+        <v>10.855271</v>
       </c>
       <c r="O16">
-        <v>0.05558776781505795</v>
+        <v>0.0949911693670569</v>
       </c>
       <c r="P16">
-        <v>0.06943108708360662</v>
+        <v>0.121325915756718</v>
       </c>
       <c r="Q16">
-        <v>19.22714338464533</v>
+        <v>10.58354909317534</v>
       </c>
       <c r="R16">
-        <v>115.362860307872</v>
+        <v>63.50129455905201</v>
       </c>
       <c r="S16">
-        <v>0.01314406892419969</v>
+        <v>0.01619403566028709</v>
       </c>
       <c r="T16">
-        <v>0.01367634099423251</v>
+        <v>0.01805887686780092</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.327592</v>
+        <v>2.924906</v>
       </c>
       <c r="H17">
-        <v>12.655184</v>
+        <v>5.849812</v>
       </c>
       <c r="I17">
-        <v>0.2364561384787094</v>
+        <v>0.1704793800117509</v>
       </c>
       <c r="J17">
-        <v>0.1969771980923172</v>
+        <v>0.1488459967943903</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.6328045</v>
+        <v>11.9979585</v>
       </c>
       <c r="N17">
-        <v>45.265609</v>
+        <v>23.995917</v>
       </c>
       <c r="O17">
-        <v>0.4140390564057488</v>
+        <v>0.3149714386492294</v>
       </c>
       <c r="P17">
-        <v>0.3447662787607582</v>
+        <v>0.2681947419320252</v>
       </c>
       <c r="Q17">
-        <v>143.211152691764</v>
+        <v>35.092900804401</v>
       </c>
       <c r="R17">
-        <v>572.844610767056</v>
+        <v>140.371603217604</v>
       </c>
       <c r="S17">
-        <v>0.09790207645707188</v>
+        <v>0.05369613558232988</v>
       </c>
       <c r="T17">
-        <v>0.06791109558700892</v>
+        <v>0.03991971369788656</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.327592</v>
+        <v>2.924906</v>
       </c>
       <c r="H18">
-        <v>12.655184</v>
+        <v>5.849812</v>
       </c>
       <c r="I18">
-        <v>0.2364561384787094</v>
+        <v>0.1704793800117509</v>
       </c>
       <c r="J18">
-        <v>0.1969771980923172</v>
+        <v>0.1488459967943903</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>9.695570333333334</v>
+        <v>0.6145123333333333</v>
       </c>
       <c r="N18">
-        <v>29.086711</v>
+        <v>1.843537</v>
       </c>
       <c r="O18">
-        <v>0.1773684207862488</v>
+        <v>0.01613223063721173</v>
       </c>
       <c r="P18">
-        <v>0.2215394277112148</v>
+        <v>0.02060462744379138</v>
       </c>
       <c r="Q18">
-        <v>61.34961327663734</v>
+        <v>1.797390810840667</v>
       </c>
       <c r="R18">
-        <v>368.0976796598241</v>
+        <v>10.784344865044</v>
       </c>
       <c r="S18">
-        <v>0.04193985186718324</v>
+        <v>0.002750212677238428</v>
       </c>
       <c r="T18">
-        <v>0.04363821573753055</v>
+        <v>0.003066916310448177</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,10 +1582,10 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.327592</v>
+        <v>2.924906</v>
       </c>
       <c r="H19">
-        <v>12.655184</v>
+        <v>5.849812</v>
       </c>
       <c r="I19">
-        <v>0.2364561384787094</v>
+        <v>0.1704793800117509</v>
       </c>
       <c r="J19">
-        <v>0.1969771980923172</v>
+        <v>0.1488459967943903</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,400 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.676304</v>
+        <v>3.498421666666667</v>
       </c>
       <c r="N19">
-        <v>11.028912</v>
+        <v>10.495265</v>
       </c>
       <c r="O19">
-        <v>0.06725341701337453</v>
+        <v>0.09184086654005638</v>
       </c>
       <c r="P19">
-        <v>0.08400189532454697</v>
+        <v>0.1173022430517332</v>
       </c>
       <c r="Q19">
-        <v>23.262151779968</v>
+        <v>10.23255452336333</v>
       </c>
       <c r="R19">
-        <v>139.572910679808</v>
+        <v>61.39532714018</v>
       </c>
       <c r="S19">
-        <v>0.01590248328648088</v>
+        <v>0.01565697398749077</v>
       </c>
       <c r="T19">
-        <v>0.01654645797547338</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>5.739525</v>
-      </c>
-      <c r="H20">
-        <v>17.218575</v>
-      </c>
-      <c r="I20">
-        <v>0.2144806299461176</v>
-      </c>
-      <c r="J20">
-        <v>0.2680061118544321</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>10.0639455</v>
-      </c>
-      <c r="N20">
-        <v>20.127891</v>
-      </c>
-      <c r="O20">
-        <v>0.1841073870690166</v>
-      </c>
-      <c r="P20">
-        <v>0.1533044232183457</v>
-      </c>
-      <c r="Q20">
-        <v>57.76226679588749</v>
-      </c>
-      <c r="R20">
-        <v>346.5736007753249</v>
-      </c>
-      <c r="S20">
-        <v>0.03948746835629639</v>
-      </c>
-      <c r="T20">
-        <v>0.04108652239683515</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>5.739525</v>
-      </c>
-      <c r="H21">
-        <v>17.218575</v>
-      </c>
-      <c r="I21">
-        <v>0.2144806299461176</v>
-      </c>
-      <c r="J21">
-        <v>0.2680061118544321</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>5.556209333333334</v>
-      </c>
-      <c r="N21">
-        <v>16.668628</v>
-      </c>
-      <c r="O21">
-        <v>0.1016439509105532</v>
-      </c>
-      <c r="P21">
-        <v>0.1269568879015276</v>
-      </c>
-      <c r="Q21">
-        <v>31.8900023739</v>
-      </c>
-      <c r="R21">
-        <v>287.0100213651</v>
-      </c>
-      <c r="S21">
-        <v>0.02180065862150771</v>
-      </c>
-      <c r="T21">
-        <v>0.03402522189962742</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>5.739525</v>
-      </c>
-      <c r="H22">
-        <v>17.218575</v>
-      </c>
-      <c r="I22">
-        <v>0.2144806299461176</v>
-      </c>
-      <c r="J22">
-        <v>0.2680061118544321</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>3.038619333333333</v>
-      </c>
-      <c r="N22">
-        <v>9.115857999999999</v>
-      </c>
-      <c r="O22">
-        <v>0.05558776781505795</v>
-      </c>
-      <c r="P22">
-        <v>0.06943108708360662</v>
-      </c>
-      <c r="Q22">
-        <v>17.44023162915</v>
-      </c>
-      <c r="R22">
-        <v>156.96208466235</v>
-      </c>
-      <c r="S22">
-        <v>0.01192249945827215</v>
-      </c>
-      <c r="T22">
-        <v>0.0186079556911039</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>5.739525</v>
-      </c>
-      <c r="H23">
-        <v>17.218575</v>
-      </c>
-      <c r="I23">
-        <v>0.2144806299461176</v>
-      </c>
-      <c r="J23">
-        <v>0.2680061118544321</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>22.6328045</v>
-      </c>
-      <c r="N23">
-        <v>45.265609</v>
-      </c>
-      <c r="O23">
-        <v>0.4140390564057488</v>
-      </c>
-      <c r="P23">
-        <v>0.3447662787607582</v>
-      </c>
-      <c r="Q23">
-        <v>129.9015472478625</v>
-      </c>
-      <c r="R23">
-        <v>779.4092834871749</v>
-      </c>
-      <c r="S23">
-        <v>0.08880335764020111</v>
-      </c>
-      <c r="T23">
-        <v>0.09239946986919209</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>5.739525</v>
-      </c>
-      <c r="H24">
-        <v>17.218575</v>
-      </c>
-      <c r="I24">
-        <v>0.2144806299461176</v>
-      </c>
-      <c r="J24">
-        <v>0.2680061118544321</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>9.695570333333334</v>
-      </c>
-      <c r="N24">
-        <v>29.086711</v>
-      </c>
-      <c r="O24">
-        <v>0.1773684207862488</v>
-      </c>
-      <c r="P24">
-        <v>0.2215394277112148</v>
-      </c>
-      <c r="Q24">
-        <v>55.647968317425</v>
-      </c>
-      <c r="R24">
-        <v>500.831714856825</v>
-      </c>
-      <c r="S24">
-        <v>0.0380420906227827</v>
-      </c>
-      <c r="T24">
-        <v>0.05937392064333872</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>5.739525</v>
-      </c>
-      <c r="H25">
-        <v>17.218575</v>
-      </c>
-      <c r="I25">
-        <v>0.2144806299461176</v>
-      </c>
-      <c r="J25">
-        <v>0.2680061118544321</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>3.676304</v>
-      </c>
-      <c r="N25">
-        <v>11.028912</v>
-      </c>
-      <c r="O25">
-        <v>0.06725341701337453</v>
-      </c>
-      <c r="P25">
-        <v>0.08400189532454697</v>
-      </c>
-      <c r="Q25">
-        <v>21.1002387156</v>
-      </c>
-      <c r="R25">
-        <v>189.9021484403999</v>
-      </c>
-      <c r="S25">
-        <v>0.01442455524705751</v>
-      </c>
-      <c r="T25">
-        <v>0.02251302135433483</v>
+        <v>0.01745996929325307</v>
       </c>
     </row>
   </sheetData>
